--- a/Chandrashekaran-annotations/DOV_Q2_2008.xlsx
+++ b/Chandrashekaran-annotations/DOV_Q2_2008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A50B157-1A30-40C4-BF07-915E5026320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3B83AE-7A80-4082-90C1-A411C8FA3AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,8 +664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +729,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -742,6 +761,24 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -756,6 +793,24 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -770,6 +825,24 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -784,6 +857,24 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -798,6 +889,24 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -812,6 +921,24 @@
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -826,6 +953,24 @@
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -840,6 +985,24 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -854,6 +1017,24 @@
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -868,6 +1049,24 @@
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -882,6 +1081,24 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -896,6 +1113,24 @@
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -910,6 +1145,24 @@
       <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -924,8 +1177,26 @@
       <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -938,8 +1209,26 @@
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -952,8 +1241,26 @@
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -966,8 +1273,26 @@
       <c r="D19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -980,8 +1305,26 @@
       <c r="D20" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -994,8 +1337,26 @@
       <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1008,8 +1369,26 @@
       <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1022,8 +1401,26 @@
       <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1036,8 +1433,26 @@
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1050,8 +1465,26 @@
       <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1064,8 +1497,26 @@
       <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -1078,8 +1529,26 @@
       <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -1092,8 +1561,26 @@
       <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -1106,8 +1593,26 @@
       <c r="D29" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -1120,8 +1625,26 @@
       <c r="D30" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -1134,8 +1657,26 @@
       <c r="D31" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -1148,8 +1689,26 @@
       <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -1162,8 +1721,26 @@
       <c r="D33" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -1176,8 +1753,26 @@
       <c r="D34" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -1190,8 +1785,26 @@
       <c r="D35" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -1204,8 +1817,26 @@
       <c r="D36" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -1218,8 +1849,26 @@
       <c r="D37" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
@@ -1232,8 +1881,26 @@
       <c r="D38" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -1245,6 +1912,24 @@
       </c>
       <c r="D39" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
